--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16987.38977940266</v>
+        <v>3380490.566101129</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16987.38977940266</v>
+        <v>3380490.566101129</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53875.40053794075</v>
+        <v>3364235.791349753</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53875.40053794075</v>
+        <v>3364235.791349753</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419764029.044214</v>
+        <v>55315044.53687689</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14478.83791506223</v>
+        <v>1377930.005525025</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27220.66386661086</v>
+        <v>2461146.563328176</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39966.15540935997</v>
+        <v>3544363.121131328</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53353.98564027088</v>
+        <v>4625078.961337113</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66728.5376219168</v>
+        <v>5707017.561606995</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80103.08960356272</v>
+        <v>6788956.161876872</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93450.33373664974</v>
+        <v>7878734.985766753</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106788.8667586257</v>
+        <v>8966780.298545524</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120163.4719390316</v>
+        <v>10045447.44380181</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133548.3720689324</v>
+        <v>11126163.28400759</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146933.2721988332</v>
+        <v>12206879.12421337</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160318.172328734</v>
+        <v>13287594.96441915</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>173703.0724586348</v>
+        <v>14368310.80462494</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187087.9725885356</v>
+        <v>15449026.64483074</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>200481.1831883212</v>
+        <v>16521753.94458772</v>
       </c>
     </row>
   </sheetData>
